--- a/bugReport.xlsx
+++ b/bugReport.xlsx
@@ -1,31 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27804"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\Desktop\AtivideCypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A8A774-5669-4395-B506-F1D6FE06F9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E6E5823-A5E9-4274-A8C1-B6573830E8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="4200" windowWidth="21600" windowHeight="11295" xr2:uid="{987E5DA5-1FB6-43CF-8A2E-0DB217F3D6AC}"/>
+    <workbookView xWindow="5730" yWindow="4200" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{987E5DA5-1FB6-43CF-8A2E-0DB217F3D6AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bug #1" sheetId="2" r:id="rId1"/>
+    <sheet name="Bug #2" sheetId="3" r:id="rId2"/>
+    <sheet name="Bug #3" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="56">
   <si>
     <t>Category</t>
   </si>
@@ -36,9 +49,21 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>ID number</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>MAT - Codigo HTTP errado</t>
+  </si>
+  <si>
     <t>Reporter</t>
   </si>
   <si>
@@ -48,32 +73,146 @@
     <t>Submit Date</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Bug ID</t>
-  </si>
-  <si>
-    <t>ID number</t>
+    <t>Bug Overview</t>
+  </si>
+  <si>
+    <t>Sumary</t>
   </si>
   <si>
     <t>Ao consultar um usuário com matrícula atrasada a Api em vez de retornar 409 para matrícula atrasada ele retorna 200</t>
   </si>
   <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/v1/matriculas/5566778'</t>
+  </si>
+  <si>
+    <t>Screenshoot</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Cypress</t>
+  </si>
+  <si>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>OS Windows 11 PRO 1000.227000.1009.0</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Electron v118</t>
+  </si>
+  <si>
+    <t>Bug Details</t>
+  </si>
+  <si>
+    <t>Steps to Reproduce</t>
+  </si>
+  <si>
+    <t>Informar o valor do Número da matricula de um aluno com mensalidade atrasada&gt; Fazer a requisição</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Apresentar o código 409</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>apresenta o código 200</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Bug tracking</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>MAT - Dados Faltando no retorno</t>
+  </si>
+  <si>
+    <t>Gabriel F.</t>
+  </si>
+  <si>
     <t xml:space="preserve">o usuário de matrícula não esta retornando os dados da matrícula e nem qual o curso </t>
   </si>
   <si>
-    <t>Gabriel  F.</t>
+    <t>http://localhost:8080/v1/matriculas/4653421'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informar o valor do Número da matricula&gt; Fazer a requisição </t>
+  </si>
+  <si>
+    <t>Retornar os dados da matrícula incluindo o curso</t>
+  </si>
+  <si>
+    <t>Não Retorna os dados da matrícula e nem o nome do curso</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>MAT - Status errado bolsa 50%</t>
   </si>
   <si>
     <t>O status da mensalidade está trazendo o status errado para aluno bolsista com 50% de desconto</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/v1/matriculas/1113499'</t>
+  </si>
+  <si>
+    <t>Retornar apenas o Status de "em dia"</t>
+  </si>
+  <si>
+    <t>Retorna o Status de "Em dia" e de "Bolsista_50%"</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,7 +229,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -104,7 +251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -114,25 +261,81 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -140,31 +343,61 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
@@ -173,22 +406,249 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -196,22 +656,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -219,157 +694,98 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -386,9 +802,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -426,7 +842,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -532,7 +948,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -674,185 +1090,653 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF52269D-BFEB-496E-A31E-6148DF3BE014}">
-  <dimension ref="B1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8344AA7A-54E4-442A-BF7A-6A16BA7DBBF9}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="124.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="35"/>
+      <c r="B5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10">
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="35"/>
+      <c r="B8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="34"/>
+      <c r="B10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="38"/>
+      <c r="B13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="39"/>
+      <c r="B15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="39"/>
+      <c r="B18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" display="'http://localhost:8080/v1/matriculas/5566778'" xr:uid="{9A76952E-D3D0-4CA5-B3E9-8B3C1DE8B14B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DAF76F-92DA-4B2A-BF8F-FD3BC8734DF8}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="124.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="32">
+        <v>45441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="42"/>
+      <c r="B8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="34"/>
+      <c r="B10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="38"/>
+      <c r="B13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="39"/>
+      <c r="B15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="39"/>
+      <c r="B18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" display="'http://localhost:8080/v1/matriculas/4653421'" xr:uid="{58EE9F74-F288-4700-B0DB-A23C3777BDBF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5815A2-8118-4494-89B9-46567EB58DA9}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="124.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="124.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="40" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="21">
-        <v>5566778</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
-      <c r="C6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="24">
-        <v>45440</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="23">
-        <v>1113499</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="C5" s="32">
+        <v>45441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="41" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
-      <c r="C9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="23">
-        <v>1113499</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
+      <c r="C6" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="42"/>
+      <c r="B8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="34"/>
+      <c r="B10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="20"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="38"/>
+      <c r="B13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="39"/>
+      <c r="B15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="39"/>
+      <c r="B18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" display="'http://localhost:8080/v1/matriculas/1113499'" xr:uid="{EB19E109-08A4-4E20-9E49-CE0EC4BF9018}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>